--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_8_4.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_8_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,776 +478,621 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_24</t>
+          <t>model_8_4_19</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6048002232377974</v>
+        <v>-0.4899014663165022</v>
       </c>
       <c r="C2" t="n">
-        <v>-11.41087471560453</v>
+        <v>-51.94316196863086</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1036988246425776</v>
+        <v>-2.367791320830892</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.112167492330409</v>
+        <v>-6.228032466976575</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4373696744441986</v>
+        <v>1.648881912231445</v>
       </c>
       <c r="G2" t="n">
-        <v>1.632719159126282</v>
+        <v>5.85093879699707</v>
       </c>
       <c r="H2" t="n">
-        <v>1.118380904197693</v>
+        <v>4.958014488220215</v>
       </c>
       <c r="I2" t="n">
-        <v>1.390677452087402</v>
+        <v>5.430737495422363</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_23</t>
+          <t>model_8_4_18</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6239950389521558</v>
+        <v>-0.4735566462321408</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.68825168095684</v>
+        <v>-52.04349923084717</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1382092206169667</v>
+        <v>-2.273262592278074</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.004952773338845</v>
+        <v>-6.148693175915089</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4161266982555389</v>
+        <v>1.63079297542572</v>
       </c>
       <c r="G3" t="n">
-        <v>1.537654042243958</v>
+        <v>5.862027645111084</v>
       </c>
       <c r="H3" t="n">
-        <v>1.075319766998291</v>
+        <v>4.818850517272949</v>
       </c>
       <c r="I3" t="n">
-        <v>1.320086002349854</v>
+        <v>5.371127128601074</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_22</t>
+          <t>model_8_4_17</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6248443422571258</v>
+        <v>-0.4690856985143794</v>
       </c>
       <c r="C4" t="n">
-        <v>-10.79816010114286</v>
+        <v>-51.96848892047998</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1566555575365323</v>
+        <v>-2.255833300999441</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.000126589316646</v>
+        <v>-6.126770291371651</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4151868224143982</v>
+        <v>1.625844955444336</v>
       </c>
       <c r="G4" t="n">
-        <v>1.552113175392151</v>
+        <v>5.853737831115723</v>
       </c>
       <c r="H4" t="n">
-        <v>1.052302837371826</v>
+        <v>4.793191909790039</v>
       </c>
       <c r="I4" t="n">
-        <v>1.316908359527588</v>
+        <v>5.354655265808105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_21</t>
+          <t>model_8_4_11</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6320187833886802</v>
+        <v>-0.4620836614178456</v>
       </c>
       <c r="C5" t="n">
-        <v>-10.67133092875099</v>
+        <v>-47.24303352481616</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1866289079799083</v>
+        <v>-2.476963289064361</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.9599796690248719</v>
+        <v>-5.962697014225828</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4072467982769012</v>
+        <v>1.618095636367798</v>
       </c>
       <c r="G5" t="n">
-        <v>1.535428047180176</v>
+        <v>5.331510543823242</v>
       </c>
       <c r="H5" t="n">
-        <v>1.014902949333191</v>
+        <v>5.118735790252686</v>
       </c>
       <c r="I5" t="n">
-        <v>1.290475010871887</v>
+        <v>5.231379985809326</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_20</t>
+          <t>model_8_4_16</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6626288459755921</v>
+        <v>-0.45660665494674</v>
       </c>
       <c r="C6" t="n">
-        <v>-9.783632467358588</v>
+        <v>-54.43401398414598</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2728628244957922</v>
+        <v>-1.978444879511962</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.789173557403714</v>
+        <v>-6.06299040057817</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3733704388141632</v>
+        <v>1.612034440040588</v>
       </c>
       <c r="G6" t="n">
-        <v>1.418646335601807</v>
+        <v>6.126211643218994</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9073024988174438</v>
+        <v>4.384823799133301</v>
       </c>
       <c r="I6" t="n">
-        <v>1.178014159202576</v>
+        <v>5.306734561920166</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_19</t>
+          <t>model_8_4_15</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6769760028932459</v>
+        <v>-0.4088928814149293</v>
       </c>
       <c r="C7" t="n">
-        <v>-9.257800331075936</v>
+        <v>-55.01727256029157</v>
       </c>
       <c r="D7" t="n">
-        <v>0.300797796980052</v>
+        <v>-1.675318894682547</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.7086372240989216</v>
+        <v>-5.828908028334003</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3574923872947693</v>
+        <v>1.559229135513306</v>
       </c>
       <c r="G7" t="n">
-        <v>1.349470257759094</v>
+        <v>6.190669536590576</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8724460601806641</v>
+        <v>3.938566446304321</v>
       </c>
       <c r="I7" t="n">
-        <v>1.124988079071045</v>
+        <v>5.130857944488525</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_18</t>
+          <t>model_8_4_14</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.683937363807912</v>
+        <v>-0.3860790362244</v>
       </c>
       <c r="C8" t="n">
-        <v>-8.979315327769054</v>
+        <v>-55.53538597759902</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3111978792527785</v>
+        <v>-1.510167319901049</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.669904521348879</v>
+        <v>-5.716957229247324</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3497881889343262</v>
+        <v>1.533981084823608</v>
       </c>
       <c r="G8" t="n">
-        <v>1.312834143638611</v>
+        <v>6.247928142547607</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8594690561294556</v>
+        <v>3.695432662963867</v>
       </c>
       <c r="I8" t="n">
-        <v>1.099485993385315</v>
+        <v>5.046744823455811</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_14</t>
+          <t>model_8_4_13</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7121046119468097</v>
+        <v>-0.3401426637086478</v>
       </c>
       <c r="C9" t="n">
-        <v>-8.205294061102871</v>
+        <v>-53.15639450241662</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3974274006425565</v>
+        <v>-1.468558141746838</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5111266472396887</v>
+        <v>-5.493355647328267</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3186153769493103</v>
+        <v>1.483143091201782</v>
       </c>
       <c r="G9" t="n">
-        <v>1.211007356643677</v>
+        <v>5.985017776489258</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7518741488456726</v>
+        <v>3.634176254272461</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9949447512626648</v>
+        <v>4.878743171691895</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_15</t>
+          <t>model_8_4_12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7142460171508539</v>
+        <v>-0.3219004001007038</v>
       </c>
       <c r="C10" t="n">
-        <v>-8.151040490884284</v>
+        <v>-51.17348532286831</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4037856038421831</v>
+        <v>-1.538128839443159</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4997182776106248</v>
+        <v>-5.403086797093591</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3162454962730408</v>
+        <v>1.46295428276062</v>
       </c>
       <c r="G10" t="n">
-        <v>1.203869938850403</v>
+        <v>5.765878677368164</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7439404726028442</v>
+        <v>3.736597061157227</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9874332547187805</v>
+        <v>4.810919761657715</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_16</t>
+          <t>model_8_4_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7170463961184003</v>
+        <v>-0.1691971690486149</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.050407373117583</v>
+        <v>-31.89535244377033</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4091961280022994</v>
+        <v>-0.5726358269006926</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4842476669954088</v>
+        <v>-3.011642962317011</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3131462931632996</v>
+        <v>1.293956756591797</v>
       </c>
       <c r="G11" t="n">
-        <v>1.190631151199341</v>
+        <v>3.635383605957031</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7371894717216492</v>
+        <v>2.315212249755859</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9772472381591797</v>
+        <v>3.014123439788818</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_17</t>
+          <t>model_8_4_8</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7184817488848937</v>
+        <v>-0.1172806229979164</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.970287420021869</v>
+        <v>-37.87124290857954</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4073815821373623</v>
+        <v>-1.32099362360307</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4773902350401842</v>
+        <v>-4.167030209475448</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3115577697753906</v>
+        <v>1.236500382423401</v>
       </c>
       <c r="G12" t="n">
-        <v>1.18009090423584</v>
+        <v>4.295800685882568</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7394536137580872</v>
+        <v>3.41693377494812</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9727321863174438</v>
+        <v>3.882216453552246</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_12</t>
+          <t>model_8_4_9</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7241679365801252</v>
+        <v>-0.1112317770814055</v>
       </c>
       <c r="C13" t="n">
-        <v>-8.061868391793128</v>
+        <v>-39.69899636984894</v>
       </c>
       <c r="D13" t="n">
-        <v>0.457830449096519</v>
+        <v>-1.169432067175858</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4420868371353828</v>
+        <v>-4.169607566522189</v>
       </c>
       <c r="F13" t="n">
-        <v>0.305264800786972</v>
+        <v>1.229806184768677</v>
       </c>
       <c r="G13" t="n">
-        <v>1.192138910293579</v>
+        <v>4.49779224395752</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6765047907829285</v>
+        <v>3.193807125091553</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9494880437850952</v>
+        <v>3.884153127670288</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_13</t>
+          <t>model_8_4_10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7294370607946272</v>
+        <v>-0.1002792800655827</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.703887187253637</v>
+        <v>-38.93980212276599</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4461063267633103</v>
+        <v>-1.212346952390247</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.4146749499505411</v>
+        <v>-4.15006023200772</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2994334399700165</v>
+        <v>1.217684864997864</v>
       </c>
       <c r="G14" t="n">
-        <v>1.145044565200806</v>
+        <v>4.413890838623047</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6911338567733765</v>
+        <v>3.256985902786255</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9314396977424622</v>
+        <v>3.869466066360474</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_11</t>
+          <t>model_8_4_1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7530434122422286</v>
+        <v>-0.08269650301470621</v>
       </c>
       <c r="C15" t="n">
-        <v>-7.287895308495706</v>
+        <v>-31.21145942477129</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5493354196413898</v>
+        <v>-0.4767025449327351</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.2786084404937386</v>
+        <v>-2.869932654726447</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2733081579208374</v>
+        <v>1.198226094245911</v>
       </c>
       <c r="G15" t="n">
-        <v>1.090318322181702</v>
+        <v>3.55980396270752</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5623273253440857</v>
+        <v>2.173980474472046</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8418517112731934</v>
+        <v>2.907650232315063</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_9</t>
+          <t>model_8_4_7</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.761522678832816</v>
+        <v>-0.07062786921059439</v>
       </c>
       <c r="C16" t="n">
-        <v>-7.232977538373197</v>
+        <v>-36.81396998641836</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6005575183213252</v>
+        <v>-1.107534740002639</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2271194053264503</v>
+        <v>-3.887877542169093</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2639240920543671</v>
+        <v>1.184869527816772</v>
       </c>
       <c r="G16" t="n">
-        <v>1.083093762397766</v>
+        <v>4.178957462310791</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4984137415885925</v>
+        <v>3.102682828903198</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8079507350921631</v>
+        <v>3.672476768493652</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_10</t>
+          <t>model_8_4_2</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7636889841651516</v>
+        <v>-0.01518691343204259</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.162506919985267</v>
+        <v>-30.91061898501704</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6048233688997942</v>
+        <v>-0.3801776421163234</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2158599499179581</v>
+        <v>-2.757501648783427</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2615266740322113</v>
+        <v>1.123512744903564</v>
       </c>
       <c r="G17" t="n">
-        <v>1.073822855949402</v>
+        <v>3.526556968688965</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4930909276008606</v>
+        <v>2.031877994537354</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8005374073982239</v>
+        <v>2.823175668716431</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_8</t>
+          <t>model_8_4_6</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7916494353363053</v>
+        <v>-0.008305798133970033</v>
       </c>
       <c r="C18" t="n">
-        <v>-6.057463930874729</v>
+        <v>-34.55237187936577</v>
       </c>
       <c r="D18" t="n">
-        <v>0.652039225734026</v>
+        <v>-0.9013150899433269</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.05686036900818925</v>
+        <v>-3.521614620146393</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2305826842784882</v>
+        <v>1.115897417068481</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9284483790397644</v>
+        <v>3.929020404815674</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4341762661933899</v>
+        <v>2.799088954925537</v>
       </c>
       <c r="I18" t="n">
-        <v>0.695850133895874</v>
+        <v>3.397287607192993</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_7</t>
+          <t>model_8_4_5</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7985056825321134</v>
+        <v>0.04006858261814428</v>
       </c>
       <c r="C19" t="n">
-        <v>-5.752933686666653</v>
+        <v>-33.242800971722</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6765461351850008</v>
+        <v>-0.6754112596496025</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.002790352442481492</v>
+        <v>-3.211341987571695</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2229948192834854</v>
+        <v>1.062361240386963</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8883857727050781</v>
+        <v>3.784294605255127</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4035971760749817</v>
+        <v>2.466516494750977</v>
       </c>
       <c r="I19" t="n">
-        <v>0.660249650478363</v>
+        <v>3.164165735244751</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_2</t>
+          <t>model_8_4_3</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8196644499273759</v>
+        <v>0.05691350013637586</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.842141678679411</v>
+        <v>-29.86791268740071</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8098694869601468</v>
+        <v>-0.2685679868519844</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3182344029861239</v>
+        <v>-2.573396430958914</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1995783150196075</v>
+        <v>1.043718934059143</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6370104551315308</v>
+        <v>3.411323547363281</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2372398227453232</v>
+        <v>1.867567777633667</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4488829970359802</v>
+        <v>2.684849739074707</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_6</t>
+          <t>model_8_4_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8219921052018858</v>
+        <v>0.09269774251541762</v>
       </c>
       <c r="C21" t="n">
-        <v>-4.841169595022676</v>
+        <v>-29.79898450769068</v>
       </c>
       <c r="D21" t="n">
-        <v>0.742562506227076</v>
+        <v>-0.5868629050725029</v>
       </c>
       <c r="E21" t="n">
-        <v>0.152531052382081</v>
+        <v>-2.861517740007113</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1970022916793823</v>
+        <v>1.004116177558899</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7684381008148193</v>
+        <v>3.403706550598145</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3212237060070038</v>
+        <v>2.336156845092773</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5579841136932373</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>model_8_4_3</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.834351817407872</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-3.863767995603776</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.8650426467315219</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.3651507542817779</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.1833237260580063</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.6398556232452393</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.1683962047100067</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.4179926514625549</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>model_8_4_4</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.8394637946955456</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-4.533154988999366</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.851658875910972</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.2824073040623974</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.1776662915945053</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.7279171347618103</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.1850961446762085</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.4724720120429993</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>model_8_4_5</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.8397842100826273</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-4.078769314232327</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.7708451154059693</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.2584009021374528</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.1773116588592529</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.6681401133537292</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.2859334051609039</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.4882781207561493</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_8_4_0</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.8912711356877506</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.2346094053282533</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.8996983017951498</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.8295852647529601</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.1203308179974556</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.1006913557648659</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.1251538097858429</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.1122031882405281</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_8_4_1</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9056868696017637</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.2184297925592963</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.9194887644359597</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.8455236218975211</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.104376845061779</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.1028198823332787</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.1004597842693329</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.101709172129631</v>
+        <v>2.901327610015869</v>
       </c>
     </row>
   </sheetData>
